--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M631"/>
+  <dimension ref="A1:M634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="I629" sqref="I629"/>
+      <selection activeCell="C635" sqref="C635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8486,6 +8486,39 @@
         <v>3.16</v>
       </c>
     </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="4">
+        <v>44398</v>
+      </c>
+      <c r="B632" s="1">
+        <v>5708.44</v>
+      </c>
+      <c r="C632">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="4">
+        <v>44399</v>
+      </c>
+      <c r="B633" s="1">
+        <v>5711.64</v>
+      </c>
+      <c r="C633">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="4">
+        <v>44400</v>
+      </c>
+      <c r="B634" s="1">
+        <v>5913.96</v>
+      </c>
+      <c r="C634">
+        <v>3.54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M634"/>
+  <dimension ref="A1:M635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="C635" sqref="C635"/>
+      <selection activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,6 +8519,17 @@
         <v>3.54</v>
       </c>
     </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="4">
+        <v>44403</v>
+      </c>
+      <c r="B635" s="1">
+        <v>5891.82</v>
+      </c>
+      <c r="C635">
+        <v>-0.37</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -926,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M635"/>
+  <dimension ref="A1:M637"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="B636" sqref="B636"/>
+      <selection activeCell="C638" sqref="C638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8530,6 +8530,28 @@
         <v>-0.37</v>
       </c>
     </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="4">
+        <v>44404</v>
+      </c>
+      <c r="B636" s="1">
+        <v>5765.58</v>
+      </c>
+      <c r="C636">
+        <v>-2.14</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="4">
+        <v>44405</v>
+      </c>
+      <c r="B637" s="1">
+        <v>5444.83</v>
+      </c>
+      <c r="C637">
+        <v>-5.56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="C638" sqref="C638"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="I604" sqref="I604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8233,7 +8233,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
         <v>44362</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
         <v>44363</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>-3.02</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="4">
         <v>44364</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
         <v>44365</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
         <v>44368</v>
       </c>
@@ -8287,8 +8287,9 @@
       <c r="C613">
         <v>-0.43</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J613" s="24"/>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
         <v>44369</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <v>44370</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="4">
         <v>44372</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
         <v>44376</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>44377</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>44378</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
         <v>44379</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="4">
         <v>44383</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
         <v>44384</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
         <v>44385</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>-2.15</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
         <v>44386</v>
       </c>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1325"/>
+  <dimension ref="A1:M1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H691" sqref="H691"/>
+    <sheetView tabSelected="1" topLeftCell="A1309" workbookViewId="0">
+      <selection activeCell="C1334" sqref="C1334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16811,6 +16811,94 @@
         <v>-5.56</v>
       </c>
     </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1326" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>5584.47</v>
+      </c>
+      <c r="C1326">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1327" s="4">
+        <v>44407</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>5733.86</v>
+      </c>
+      <c r="C1327">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1328" s="4">
+        <v>44410</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>5754.44</v>
+      </c>
+      <c r="C1328">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1329" s="4">
+        <v>44411</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>6131.33</v>
+      </c>
+      <c r="C1329">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1330" s="4">
+        <v>44412</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>5913.88</v>
+      </c>
+      <c r="C1330">
+        <v>-3.55</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1331" s="4">
+        <v>44413</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>6006.56</v>
+      </c>
+      <c r="C1331">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1332" s="4">
+        <v>44414</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>6066.51</v>
+      </c>
+      <c r="C1332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1333" s="4">
+        <v>44417</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>5998.83</v>
+      </c>
+      <c r="C1333">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1333"/>
+  <dimension ref="A1:M1335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1309" workbookViewId="0">
-      <selection activeCell="C1334" sqref="C1334"/>
+    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
+      <selection activeCell="C1336" sqref="C1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16899,6 +16899,28 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1334" s="4">
+        <v>44418</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>6070.12</v>
+      </c>
+      <c r="C1334">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1335" s="4">
+        <v>44419</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>6001.16</v>
+      </c>
+      <c r="C1335">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1335"/>
+  <dimension ref="A1:M1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
-      <selection activeCell="C1336" sqref="C1336"/>
+    <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
+      <selection activeCell="C1340" sqref="C1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16921,6 +16921,50 @@
         <v>-1.1399999999999999</v>
       </c>
     </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1336" s="4">
+        <v>44420</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>6050.19</v>
+      </c>
+      <c r="C1336">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1337" s="4">
+        <v>44421</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>6035.56</v>
+      </c>
+      <c r="C1337">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1338" s="4">
+        <v>44424</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>6091.72</v>
+      </c>
+      <c r="C1338">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1339" s="4">
+        <v>44425</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>6083.84</v>
+      </c>
+      <c r="C1339">
+        <v>-0.13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1339"/>
+  <dimension ref="A1:M1342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="C1340" sqref="C1340"/>
+      <selection activeCell="C1343" sqref="C1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16965,6 +16965,39 @@
         <v>-0.13</v>
       </c>
     </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1340" s="4">
+        <v>44426</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>6176.91</v>
+      </c>
+      <c r="C1340">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1341" s="4">
+        <v>44427</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>6423.84</v>
+      </c>
+      <c r="C1341">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1342" s="4">
+        <v>44428</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>6581.24</v>
+      </c>
+      <c r="C1342">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1342"/>
+  <dimension ref="A1:M1344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="C1343" sqref="C1343"/>
+      <selection activeCell="J1346" sqref="J1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16998,6 +16998,28 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1343" s="4">
+        <v>44431</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>6779.69</v>
+      </c>
+      <c r="C1343">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1344" s="4">
+        <v>44432</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>6781.05</v>
+      </c>
+      <c r="C1344">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1344"/>
+  <dimension ref="A1:M1346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="J1346" sqref="J1346"/>
+      <selection activeCell="H1346" sqref="H1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17020,6 +17020,28 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1345" s="4">
+        <v>44433</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>6663.61</v>
+      </c>
+      <c r="C1345">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1346" s="4">
+        <v>44434</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>6671.39</v>
+      </c>
+      <c r="C1346">
+        <v>0.12</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1346"/>
+  <dimension ref="A1:M1350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="H1346" sqref="H1346"/>
+    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
+      <selection activeCell="C1351" sqref="C1351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17042,6 +17042,50 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1347" s="4">
+        <v>44435</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>6706.46</v>
+      </c>
+      <c r="C1347">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1348" s="4">
+        <v>44438</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>6654.11</v>
+      </c>
+      <c r="C1348">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1349" s="4">
+        <v>44439</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>6613.67</v>
+      </c>
+      <c r="C1349">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1350" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>6635.19</v>
+      </c>
+      <c r="C1350">
+        <v>0.33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1350"/>
+  <dimension ref="A1:M1352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="C1351" sqref="C1351"/>
+      <selection activeCell="C1352" sqref="C1352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17086,6 +17086,28 @@
         <v>0.33</v>
       </c>
     </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1351" s="4">
+        <v>44441</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>6536.71</v>
+      </c>
+      <c r="C1351">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1352" s="4">
+        <v>44442</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>6371.79</v>
+      </c>
+      <c r="C1352">
+        <v>-2.52</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1352"/>
+  <dimension ref="A1:M1353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="C1352" sqref="C1352"/>
+      <selection activeCell="C1354" sqref="C1354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17108,6 +17108,17 @@
         <v>-2.52</v>
       </c>
     </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1353" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>6235.96</v>
+      </c>
+      <c r="C1353">
+        <v>-2.13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1353"/>
+  <dimension ref="A1:M1354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="C1354" sqref="C1354"/>
+      <selection activeCell="B1355" sqref="B1355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17119,6 +17119,17 @@
         <v>-2.13</v>
       </c>
     </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1354" s="4">
+        <v>44446</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>5976.44</v>
+      </c>
+      <c r="C1354">
+        <v>-4.16</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1354"/>
+  <dimension ref="A1:M1356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="B1355" sqref="B1355"/>
+    <sheetView tabSelected="1" topLeftCell="A1324" workbookViewId="0">
+      <selection activeCell="H1345" sqref="H1345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17130,6 +17130,28 @@
         <v>-4.16</v>
       </c>
     </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1355" s="4">
+        <v>44447</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>6019.67</v>
+      </c>
+      <c r="C1355">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1356" s="4">
+        <v>44448</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>6002.25</v>
+      </c>
+      <c r="C1356">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1356"/>
+  <dimension ref="A1:M1357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1324" workbookViewId="0">
-      <selection activeCell="H1345" sqref="H1345"/>
+      <selection activeCell="F1353" sqref="F1353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17152,6 +17152,17 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1357" s="4">
+        <v>44449</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>5989.63</v>
+      </c>
+      <c r="C1357">
+        <v>-0.21</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1357"/>
+  <dimension ref="A1:M1358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1324" workbookViewId="0">
-      <selection activeCell="F1353" sqref="F1353"/>
+      <selection activeCell="C1359" sqref="C1359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17163,6 +17163,17 @@
         <v>-0.21</v>
       </c>
     </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1358" s="4">
+        <v>44452</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>5903.48</v>
+      </c>
+      <c r="C1358">
+        <v>-1.44</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/ibc.xlsx
+++ b/ibc.xlsx
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1358"/>
+  <dimension ref="A1:M1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1324" workbookViewId="0">
-      <selection activeCell="C1359" sqref="C1359"/>
+    <sheetView tabSelected="1" topLeftCell="A1333" workbookViewId="0">
+      <selection activeCell="B1364" sqref="B1364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17174,6 +17174,61 @@
         <v>-1.44</v>
       </c>
     </row>
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1359" s="4">
+        <v>44453</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>5882.13</v>
+      </c>
+      <c r="C1359">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1360" s="4">
+        <v>44454</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>5895.31</v>
+      </c>
+      <c r="C1360">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1361" s="4">
+        <v>44455</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>5859.21</v>
+      </c>
+      <c r="C1361">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1362" s="4">
+        <v>44456</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>5898.95</v>
+      </c>
+      <c r="C1362">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1363" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>5805.99</v>
+      </c>
+      <c r="C1363">
+        <v>-1.58</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>
